--- a/document/Eplus_Database.xlsx
+++ b/document/Eplus_Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="534">
   <si>
     <t>TÊN THỰC THỂ</t>
     <phoneticPr fontId="1"/>
@@ -2238,6 +2238,10 @@
   </si>
   <si>
     <t>F001.mission_div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.Từ vựng</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2500,10 +2504,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2512,10 +2516,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3085,94 +3089,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="10"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="10"/>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="8"/>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="8"/>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="37" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="8"/>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="8"/>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="37" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="8"/>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="37" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="2:30">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="36"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="36"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="36"/>
+      <c r="S2" s="37"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="36"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="36"/>
+      <c r="W2" s="37"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="36"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="36"/>
-      <c r="AC2" s="36"/>
+      <c r="AA2" s="37"/>
+      <c r="AC2" s="37"/>
     </row>
     <row r="3" spans="2:30">
       <c r="B3" s="10" t="s">
@@ -3900,12 +3904,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="W1:W2"/>
@@ -3916,6 +3914,12 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3957,13 +3961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="38" t="s">
@@ -3996,9 +4000,9 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="38"/>
       <c r="F2" s="11"/>
       <c r="G2" s="38"/>
@@ -4435,44 +4439,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="21"/>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="21"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="21" t="s">
@@ -5039,31 +5043,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="41"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
@@ -5076,19 +5080,19 @@
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -5101,31 +5105,31 @@
       <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
@@ -5138,31 +5142,31 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="40"/>
+      <c r="R5" s="41"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -5175,31 +5179,31 @@
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40" t="s">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="40"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -5212,31 +5216,31 @@
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="41"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -5249,25 +5253,25 @@
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -5280,31 +5284,31 @@
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="40"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -5317,31 +5321,31 @@
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40" t="s">
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="40"/>
+      <c r="R10" s="41"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -5354,33 +5358,33 @@
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="41" t="s">
         <v>183</v>
       </c>
       <c r="L11" s="14"/>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
@@ -5393,33 +5397,33 @@
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>184</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40" t="s">
+      <c r="N12" s="41"/>
+      <c r="O12" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="40"/>
+      <c r="R12" s="41"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -5432,27 +5436,27 @@
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="41" t="s">
         <v>185</v>
       </c>
       <c r="L13" s="14"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -5465,191 +5469,191 @@
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="41" t="s">
         <v>186</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="41" t="s">
         <v>187</v>
       </c>
       <c r="L15" s="14"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="6:22">
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="6:22">
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40" t="s">
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="6:22">
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40" t="s">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="40"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
     </row>
     <row r="20" spans="6:22">
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K20" s="40"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="6:22">
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40" t="s">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="14"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -5663,18 +5667,18 @@
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="6:22">
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40" t="s">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="14"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -5688,18 +5692,18 @@
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="6:22">
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="41" t="s">
         <v>194</v>
       </c>
       <c r="L23" s="14"/>
@@ -5715,12 +5719,12 @@
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="6:22">
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="14"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
@@ -5734,12 +5738,12 @@
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="6:22">
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="14"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
@@ -5753,12 +5757,12 @@
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="6:22">
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="14"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
@@ -5772,12 +5776,12 @@
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="6:22">
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
       <c r="L27" s="14"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
@@ -5791,12 +5795,12 @@
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="6:22">
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="14"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
@@ -5810,12 +5814,12 @@
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="6:22">
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="14"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -5829,12 +5833,12 @@
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="6:22">
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
       <c r="L30" s="14"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
@@ -5848,12 +5852,12 @@
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="6:22">
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
@@ -5867,12 +5871,12 @@
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="6:22">
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
       <c r="L32" s="14"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
@@ -5886,12 +5890,12 @@
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="6:22">
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
       <c r="L33" s="14"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -5905,12 +5909,12 @@
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="6:22">
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
       <c r="L34" s="14"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -5924,12 +5928,12 @@
       <c r="V34" s="16"/>
     </row>
     <row r="35" spans="6:22">
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="14"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
@@ -5952,6 +5956,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="J2:K3"/>
@@ -5976,132 +6106,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6234,10 +6238,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6327,243 +6331,249 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="6" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="42"/>
       <c r="C15" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="42"/>
       <c r="C16" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="42"/>
+      <c r="C17" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="42" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="42"/>
-      <c r="C18" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="42"/>
       <c r="C19" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="42"/>
       <c r="C20" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="42"/>
       <c r="C21" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42"/>
       <c r="C22" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="42"/>
       <c r="C23" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="42"/>
       <c r="C24" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="42"/>
       <c r="C25" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="42"/>
+      <c r="C26" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="42" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="42"/>
-      <c r="C27" s="6" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="42"/>
+      <c r="C28" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="42" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="42"/>
-      <c r="C29" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="42"/>
       <c r="C30" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="42"/>
       <c r="C31" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="42"/>
       <c r="C32" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="42"/>
       <c r="C33" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="42"/>
       <c r="C34" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="42"/>
+      <c r="C35" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="42" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="42"/>
-      <c r="C36" s="6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="42"/>
       <c r="C37" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="42"/>
+      <c r="C38" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="42" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="42"/>
-      <c r="C39" s="6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="42"/>
       <c r="C40" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="42"/>
       <c r="C41" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="42"/>
       <c r="C42" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="42"/>
+      <c r="C43" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="42" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="42"/>
-      <c r="C44" s="6" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="42"/>
+      <c r="C45" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="30" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="32" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="35" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" s="35" t="s">
         <v>532</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B18:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
